--- a/002415_海康威视/海康威视.xlsx
+++ b/002415_海康威视/海康威视.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/002415_海康威视/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="885" windowWidth="25605" windowHeight="14775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="3" r:id="rId1"/>
@@ -13,20 +18,21 @@
     <sheet name="应收" sheetId="7" r:id="rId4"/>
     <sheet name="存货" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>净利润</t>
     <rPh sb="0" eb="1">
@@ -579,10 +585,6 @@
   </si>
   <si>
     <t>经营性其他非流动资产的增加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润折扣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -753,16 +755,80 @@
       <t>de</t>
     </rPh>
     <rPh sb="237" eb="238">
-      <t>di'san'fang</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>wai'bao</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>xiang'mu'xing</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>gong'si</t>
+      <t>di'san'fangwai'baoxiang'mu'xinggong'si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流折扣</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin'liu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe'kou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合增长</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近5年复合增长</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gu'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价格</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>qi'wang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'fu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -770,12 +836,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -861,6 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,7 +946,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -961,31 +1028,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2018.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2017.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,36 +1064,36 @@
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>11381692864.66</c:v>
+                  <c:v>1.138169286466E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9377501639.8199997</c:v>
+                  <c:v>9.37750163982E9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7420273140.4399996</c:v>
+                  <c:v>7.42027314044E9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5882397844.6999998</c:v>
+                  <c:v>5.8823978447E9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4680701236.6599998</c:v>
+                  <c:v>4.68070123666E9</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.00">
-                  <c:v>3077052948.5599999</c:v>
+                  <c:v>3.07705294856E9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2140426340.48</c:v>
+                  <c:v>2.14042634048E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1482482923.78</c:v>
+                  <c:v>1.48248292378E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1052375236.76</c:v>
+                  <c:v>1.05237523676E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F73-4E57-94BB-29D1AB49CA2B}"/>
             </c:ext>
@@ -1063,31 +1130,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2018.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017</c:v>
+                  <c:v>2017.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016</c:v>
+                  <c:v>2016.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,36 +1166,36 @@
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9114013286.0599995</c:v>
+                  <c:v>9.11401328606E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7373160250.6800003</c:v>
+                  <c:v>7.37316025068E9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6213692160.5600004</c:v>
+                  <c:v>6.21369216056E9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3216722169.1700001</c:v>
+                  <c:v>3.21672216917E9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3706420782.04</c:v>
+                  <c:v>3.70642078204E9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1863365811.6300001</c:v>
+                  <c:v>1.86336581163E9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1436789861.4200001</c:v>
+                  <c:v>1.43678986142E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1170461433.24</c:v>
+                  <c:v>1.17046143324E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>663926032.74000001</c:v>
+                  <c:v>6.6392603274E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0F73-4E57-94BB-29D1AB49CA2B}"/>
             </c:ext>
@@ -1144,11 +1211,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="35951808"/>
-        <c:axId val="35948480"/>
+        <c:axId val="-2105376352"/>
+        <c:axId val="-2116253408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35951808"/>
+        <c:axId val="-2105376352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1258,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35948480"/>
+        <c:crossAx val="-2116253408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35948480"/>
+        <c:axId val="-2116253408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1317,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35951808"/>
+        <c:crossAx val="-2105376352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2172,29 +2239,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1"/>
-    <row r="2" spans="1:11" ht="20.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2296,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2262,7 +2329,7 @@
         <v>11352869241.32</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2303,256 +2370,294 @@
         <v>0.20635894815047454</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(K3/C3)^(1/8)-1</f>
+        <v>0.34631391877263407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(K3/G3)^(1/4)-1</f>
+        <v>0.26205635538735339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <f>SUM(D4:K4)/8</f>
-        <v>0.34971095265938401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13">
-        <f>K3*F8</f>
+      <c r="F9" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <f>K3*F10</f>
         <v>8401123238.5767994</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B10" s="12">
         <v>0.05</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C10" s="12">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D10" s="12">
         <v>0.1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E10" s="12">
         <v>0.7</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F10" s="12">
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14">
         <v>0.18</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C12" s="14">
         <v>0.18</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D12" s="14">
         <v>0.18</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E12" s="14">
         <v>0.18</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F12" s="14">
         <v>0.18</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="12" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B13" s="12">
         <v>2019</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C13" s="12">
         <v>2020</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D13" s="12">
         <v>2021</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E13" s="12">
         <v>2022</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F13" s="12">
         <v>2023</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="15">
-        <f>A8*(1+D8)</f>
+      <c r="B14" s="15">
+        <f>A10*(1+D10)</f>
         <v>9241235562.4344807</v>
       </c>
-      <c r="C12" s="15">
-        <f>B12*(1+D8)</f>
+      <c r="C14" s="15">
+        <f>B14*(1+D10)</f>
         <v>10165359118.677929</v>
       </c>
-      <c r="D12" s="15">
-        <f>C12*(1+D8)</f>
+      <c r="D14" s="15">
+        <f>C14*(1+D10)</f>
         <v>11181895030.545723</v>
       </c>
-      <c r="E12" s="15">
-        <f>D12*(1+D8)</f>
+      <c r="E14" s="15">
+        <f>D14*(1+D10)</f>
         <v>12300084533.600296</v>
       </c>
-      <c r="F12" s="15">
-        <f>E12*(1+D8)</f>
+      <c r="F14" s="15">
+        <f>E14*(1+D10)</f>
         <v>13530092986.960327</v>
       </c>
-      <c r="G12" s="15">
-        <f>F12*C8</f>
+      <c r="G14" s="15">
+        <f>F14*C10</f>
         <v>270601859739.20654</v>
       </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="13">
-        <f>B12/(1+B8)</f>
+      <c r="B15" s="13">
+        <f>B14/(1+B10)</f>
         <v>8801176726.1280766</v>
       </c>
-      <c r="C13" s="13">
-        <f>C12/(1+B8)^2</f>
+      <c r="C15" s="13">
+        <f>C14/(1+B10)^2</f>
         <v>9220280379.7532234</v>
       </c>
-      <c r="D13" s="13">
-        <f>D12/(1+B8)^3</f>
+      <c r="D15" s="13">
+        <f>D14/(1+B10)^3</f>
         <v>9659341350.2176628</v>
       </c>
-      <c r="E13" s="13">
-        <f>E12/(1+B8)^4</f>
+      <c r="E15" s="13">
+        <f>E14/(1+B10)^4</f>
         <v>10119309985.942314</v>
       </c>
-      <c r="F13" s="13">
-        <f>F12/(1+B8)^5</f>
+      <c r="F15" s="13">
+        <f>F14/(1+B10)^5</f>
         <v>10601181890.034807</v>
       </c>
-      <c r="G13" s="13">
-        <f>G12/(1+B8)^4</f>
+      <c r="G15" s="13">
+        <f>G14/(1+B10)^4</f>
         <v>222624819690.73096</v>
       </c>
-      <c r="H13" s="13">
-        <f>SUM(B13:G13)</f>
+      <c r="H15" s="13">
+        <f>SUM(B15:G15)</f>
         <v>271026110022.80704</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="I15" s="18">
+        <v>9348465931</v>
+      </c>
+      <c r="J15">
+        <f>H15/I15</f>
+        <v>28.991506416477417</v>
+      </c>
+      <c r="K15">
+        <v>28.83</v>
+      </c>
+      <c r="L15" s="2">
+        <f>J15/K15</f>
+        <v>1.0056020262392444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="13">
-        <f>H13*E8</f>
+      <c r="H16" s="13">
+        <f>H15*E10</f>
         <v>189718277015.9649</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>2018</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K16" s="5">
         <v>11352869241.32</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="J15">
-        <f>J14-1</f>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>J16-1</f>
         <v>2017</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K17" s="5">
         <v>9410855084.8199997</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="J16">
-        <f>J15-1</f>
-        <v>2016</v>
-      </c>
-      <c r="K16" s="5">
-        <v>7422261983.1669998</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17">
-        <f t="shared" ref="J17:J21" si="1">J16-1</f>
-        <v>2015</v>
-      </c>
-      <c r="K17" s="5">
-        <v>5869049646</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J18">
         <f>J17-1</f>
+        <v>2016</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7422261983.1669998</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" ref="J19:J23" si="1">J18-1</f>
+        <v>2015</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5869049646</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>J19-1</f>
         <v>2014</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K20" s="5">
         <v>4474975306.54</v>
       </c>
     </row>
-    <row r="19" spans="10:11">
-      <c r="J19">
+    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K21" s="5">
         <v>2977541251.73</v>
       </c>
     </row>
-    <row r="20" spans="10:11">
-      <c r="J20">
-        <f>J19-1</f>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f>J21-1</f>
         <v>2012</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K22" s="5">
         <v>2136873134.55</v>
       </c>
     </row>
-    <row r="21" spans="10:11">
-      <c r="J21">
+    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K23" s="5">
         <v>1481012967.98</v>
       </c>
     </row>
-    <row r="22" spans="10:11">
-      <c r="J22">
-        <f>J21-1</f>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f>J23-1</f>
         <v>2010</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K24" s="5">
         <v>1051804319.23</v>
       </c>
     </row>
@@ -2566,33 +2671,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="23" width="17.875" customWidth="1"/>
-    <col min="24" max="25" width="15.625" customWidth="1"/>
-    <col min="26" max="26" width="17.875" customWidth="1"/>
-    <col min="27" max="27" width="17.25" customWidth="1"/>
-    <col min="28" max="29" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.625" customWidth="1"/>
-    <col min="32" max="32" width="18.125" customWidth="1"/>
+    <col min="14" max="23" width="17.83203125" customWidth="1"/>
+    <col min="24" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" customWidth="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1"/>
+    <col min="28" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" customWidth="1"/>
+    <col min="32" max="32" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>15</v>
       </c>
@@ -2606,7 +2711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2692,7 +2797,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -2781,7 +2886,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -2871,7 +2976,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5-1</f>
         <v>2016</v>
@@ -2959,7 +3064,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:A11" si="5">A6-1</f>
         <v>2015</v>
@@ -3045,7 +3150,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A7-1</f>
         <v>2014</v>
@@ -3129,7 +3234,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -3213,7 +3318,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>A9-1</f>
         <v>2012</v>
@@ -3297,7 +3402,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -3377,7 +3482,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>A11-1</f>
         <v>2010</v>
@@ -3459,7 +3564,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3504,71 +3609,71 @@
         <v>4.3738906504852147E-2</v>
       </c>
       <c r="L13" s="5">
-        <f>SUM(L4:L12)</f>
+        <f t="shared" ref="L13:AB13" si="6">SUM(L4:L12)</f>
         <v>1334497624.73</v>
       </c>
       <c r="M13" s="5">
-        <f>SUM(M4:M12)</f>
+        <f t="shared" si="6"/>
         <v>181936776.79999998</v>
       </c>
       <c r="N13" s="5">
-        <f>SUM(N4:N12)</f>
+        <f t="shared" si="6"/>
         <v>1063802.69</v>
       </c>
       <c r="O13" s="5">
-        <f>SUM(O4:O12)</f>
+        <f t="shared" si="6"/>
         <v>-7532708.8200000012</v>
       </c>
       <c r="P13" s="5">
-        <f>SUM(P4:P12)</f>
+        <f t="shared" si="6"/>
         <v>-35554.46</v>
       </c>
       <c r="Q13" s="5">
-        <f>SUM(Q4:Q12)</f>
+        <f t="shared" si="6"/>
         <v>-2203733.9700000044</v>
       </c>
       <c r="R13" s="5">
-        <f>SUM(R4:R12)</f>
+        <f t="shared" si="6"/>
         <v>332764411.71999997</v>
       </c>
       <c r="S13" s="5">
-        <f>SUM(S4:S12)</f>
+        <f t="shared" si="6"/>
         <v>-480016038.90000004</v>
       </c>
       <c r="T13" s="5">
-        <f>SUM(T4:T12)</f>
+        <f t="shared" si="6"/>
         <v>615334703.18000007</v>
       </c>
       <c r="U13" s="5">
-        <f>SUM(U4:U12)</f>
+        <f t="shared" si="6"/>
         <v>-455196606.81</v>
       </c>
       <c r="V13" s="5">
-        <f>SUM(V4:V12)</f>
+        <f t="shared" si="6"/>
         <v>-513443918.69000012</v>
       </c>
       <c r="W13" s="5">
-        <f>SUM(W4:W12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X13" s="5">
-        <f>SUM(X4:X12)</f>
+        <f t="shared" si="6"/>
         <v>-5788130395.5499992</v>
       </c>
       <c r="Y13" s="5">
-        <f>SUM(Y4:Y12)</f>
+        <f t="shared" si="6"/>
         <v>-1253407742.28</v>
       </c>
       <c r="Z13" s="5">
-        <f>SUM(Z4:Z12)</f>
+        <f t="shared" si="6"/>
         <v>-22679183759.73</v>
       </c>
       <c r="AA13" s="5">
-        <f>SUM(AA4:AA12)</f>
+        <f t="shared" si="6"/>
         <v>14526247100.039999</v>
       </c>
       <c r="AB13" s="5">
-        <f>SUM(AB4:AB12)</f>
+        <f t="shared" si="6"/>
         <v>442616007.60999995</v>
       </c>
       <c r="AC13" s="5"/>
@@ -3576,7 +3681,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3608,7 +3713,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3639,9 +3744,9 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="170.1" customHeight="1">
+    <row r="16" spans="1:32" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3674,7 +3779,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3707,7 +3812,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3758,13 +3863,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3778,7 +3883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -3793,7 +3898,7 @@
         <v>0.22084933132346027</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -3809,7 +3914,7 @@
         <v>0.24993790583979392</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="1">A5-1</f>
         <v>2016</v>
@@ -3825,7 +3930,7 @@
         <v>0.24147965875180533</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2015</v>
@@ -3841,7 +3946,7 @@
         <v>0.23453741926343227</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -3857,7 +3962,7 @@
         <v>0.24385179611336147</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -3873,7 +3978,7 @@
         <v>0.35755213526579355</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -3889,7 +3994,7 @@
         <v>0.38042083816289102</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -3905,7 +4010,7 @@
         <v>0.28024960500969937</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -3921,7 +4026,7 @@
         <v>0.26033340853605191</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>2009</v>
@@ -3934,52 +4039,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="7:9">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="7:9">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="7:9">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="7:9">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="7:9">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="7:9">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="7:9">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="7:9">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="7:9">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3998,7 +4103,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4013,16 +4118,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
+    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4100,7 +4205,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -4141,7 +4246,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -4155,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -4169,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -4183,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -4197,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -4211,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -4237,7 +4342,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -4257,7 +4362,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="L13" s="3"/>
     </row>

--- a/002415_海康威视/海康威视.xlsx
+++ b/002415_海康威视/海康威视.xlsx
@@ -19,7 +19,6 @@
     <sheet name="存货" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -921,13 +920,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1211,11 +1210,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2105376352"/>
-        <c:axId val="-2116253408"/>
+        <c:axId val="-2116616720"/>
+        <c:axId val="-2085819552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105376352"/>
+        <c:axId val="-2116616720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116253408"/>
+        <c:crossAx val="-2085819552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1266,7 +1265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116253408"/>
+        <c:axId val="-2085819552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1316,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105376352"/>
+        <c:crossAx val="-2116616720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,7 +2241,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2420,7 +2419,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="12">
         <v>0.1</v>
@@ -2517,7 +2516,7 @@
       </c>
       <c r="G14" s="15">
         <f>F14*C10</f>
-        <v>270601859739.20654</v>
+        <v>284131952726.16687</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -2547,25 +2546,25 @@
       </c>
       <c r="G15" s="13">
         <f>G14/(1+B10)^4</f>
-        <v>222624819690.73096</v>
+        <v>233756060675.26749</v>
       </c>
       <c r="H15" s="13">
         <f>SUM(B15:G15)</f>
-        <v>271026110022.80704</v>
-      </c>
-      <c r="I15" s="18">
+        <v>282157351007.34357</v>
+      </c>
+      <c r="I15" s="16">
         <v>9348465931</v>
       </c>
       <c r="J15">
         <f>H15/I15</f>
-        <v>28.991506416477417</v>
+        <v>30.182208834039294</v>
       </c>
       <c r="K15">
         <v>28.83</v>
       </c>
       <c r="L15" s="2">
         <f>J15/K15</f>
-        <v>1.0056020262392444</v>
+        <v>1.046902838502924</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2580,7 +2579,7 @@
       </c>
       <c r="H16" s="13">
         <f>H15*E10</f>
-        <v>189718277015.9649</v>
+        <v>197510145705.14047</v>
       </c>
       <c r="J16">
         <v>2018</v>
@@ -3745,22 +3744,22 @@
       <c r="AE15" s="5"/>
     </row>
     <row r="16" spans="1:32" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>

--- a/002415_海康威视/海康威视.xlsx
+++ b/002415_海康威视/海康威视.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/002415_海康威视/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="3" r:id="rId1"/>
     <sheet name="现金流净利润比" sheetId="4" r:id="rId2"/>
     <sheet name="roe" sheetId="8" r:id="rId3"/>
-    <sheet name="应收" sheetId="7" r:id="rId4"/>
+    <sheet name="应收账款周转率" sheetId="7" r:id="rId4"/>
     <sheet name="存货" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>净利润</t>
     <rPh sb="0" eb="1">
@@ -831,16 +829,91 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>销售额</t>
+    <rPh sb="0" eb="1">
+      <t>gu'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收票据</t>
+    <rPh sb="0" eb="1">
+      <t>kou'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款帐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收款</t>
+    <rPh sb="0" eb="1">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款合计</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款周转率</t>
+    <rPh sb="0" eb="1">
+      <t>kou'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款周转天数</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递延所得税负债增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,6 +943,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -879,7 +968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -887,11 +976,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -927,6 +1031,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -945,7 +1053,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -959,7 +1067,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1027,31 +1134,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2018.0</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017.0</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016.0</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015.0</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2014.0</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013.0</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2012.0</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011.0</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2010.0</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,36 +1170,36 @@
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.138169286466E10</c:v>
+                  <c:v>11381692864.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.37750163982E9</c:v>
+                  <c:v>9377501639.8199997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.42027314044E9</c:v>
+                  <c:v>7420273140.4399996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8823978447E9</c:v>
+                  <c:v>5882397844.6999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.68070123666E9</c:v>
+                  <c:v>4680701236.6599998</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.00">
-                  <c:v>3.07705294856E9</c:v>
+                  <c:v>3077052948.5599999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.14042634048E9</c:v>
+                  <c:v>2140426340.48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.48248292378E9</c:v>
+                  <c:v>1482482923.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.05237523676E9</c:v>
+                  <c:v>1052375236.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F73-4E57-94BB-29D1AB49CA2B}"/>
             </c:ext>
@@ -1129,31 +1236,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2018.0</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2017.0</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016.0</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015.0</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2014.0</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013.0</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2012.0</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011.0</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2010.0</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,36 +1272,36 @@
                 <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.11401328606E9</c:v>
+                  <c:v>9114013286.0599995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.37316025068E9</c:v>
+                  <c:v>7373160250.6800003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.21369216056E9</c:v>
+                  <c:v>6213692160.5600004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.21672216917E9</c:v>
+                  <c:v>3216722169.1700001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.70642078204E9</c:v>
+                  <c:v>3706420782.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.86336581163E9</c:v>
+                  <c:v>1863365811.6300001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.43678986142E9</c:v>
+                  <c:v>1436789861.4200001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.17046143324E9</c:v>
+                  <c:v>1170461433.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6392603274E8</c:v>
+                  <c:v>663926032.74000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0F73-4E57-94BB-29D1AB49CA2B}"/>
             </c:ext>
@@ -1330,7 +1437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1360,6 +1466,690 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>应收账款周转率!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应收账款周转率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.6557808345944953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5844932699394954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5280047545337658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9169319670508425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5096419164575927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8529009566281185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5496531549010504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5141658696507756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78D0-4560-B35D-34CD3720D1B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="778765983"/>
+        <c:axId val="778764319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="778765983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778764319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="778764319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778765983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>应收账款周转率!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>应收账款周转天数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>应收账款周转率!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>135.55335414376071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.29229539391596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.40479546344602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.41734537058031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.57456702687233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.436089858654299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.126910940935133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.286392993977813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7667-481E-B9F4-4F528C0FF48B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="775208783"/>
+        <c:axId val="775212111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="775208783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="775212111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="775212111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="775208783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1437,6 +2227,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1921,6 +2791,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1973,6 +3875,191 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="自由现金流"/>
+      <sheetName val="估值"/>
+      <sheetName val="现金流净利润比"/>
+      <sheetName val="应收账款周转率"/>
+      <sheetName val="存货"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>应收账款周转率</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>应收账款周转天数</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2018</v>
+          </cell>
+          <cell r="G4">
+            <v>1.8652665926560597</v>
+          </cell>
+          <cell r="H4">
+            <v>193.00190193583828</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2017</v>
+          </cell>
+          <cell r="G5">
+            <v>2.3970302521249183</v>
+          </cell>
+          <cell r="H5">
+            <v>150.1858391986782</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2016</v>
+          </cell>
+          <cell r="G6">
+            <v>2.3415657186842211</v>
+          </cell>
+          <cell r="H6">
+            <v>153.74328259396117</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2015</v>
+          </cell>
+          <cell r="G7">
+            <v>3.2199598032847141</v>
+          </cell>
+          <cell r="H7">
+            <v>111.80263791888343</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2014</v>
+          </cell>
+          <cell r="G8">
+            <v>4.5492403085441779</v>
+          </cell>
+          <cell r="H8">
+            <v>79.134091756785025</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2013</v>
+          </cell>
+          <cell r="G9">
+            <v>7.659485139004544</v>
+          </cell>
+          <cell r="H9">
+            <v>47.000548139556415</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2012</v>
+          </cell>
+          <cell r="G10">
+            <v>8.8899765953547369</v>
+          </cell>
+          <cell r="H10">
+            <v>40.495044743774706</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2011</v>
+          </cell>
+          <cell r="G11">
+            <v>14.726195677233045</v>
+          </cell>
+          <cell r="H11">
+            <v>24.44623227141863</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2240,27 +4327,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1"/>
+    <row r="2" spans="1:12" ht="20.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2295,7 +4382,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2328,7 +4415,7 @@
         <v>11352869241.32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2369,7 +4456,7 @@
         <v>0.20635894815047454</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2378,7 +4465,7 @@
         <v>0.34631391877263407</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -2387,10 +4474,10 @@
         <v>0.26205635538735339</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
@@ -2410,7 +4497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="13">
         <f>K3*F10</f>
         <v>8401123238.5767994</v>
@@ -2431,10 +4518,10 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="12"/>
       <c r="B12" s="14">
         <v>0.18</v>
@@ -2454,7 +4541,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +4577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
@@ -2520,7 +4607,7 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
@@ -2567,7 +4654,7 @@
         <v>1.046902838502924</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2588,7 +4675,7 @@
         <v>11352869241.32</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:11">
       <c r="J17">
         <f>J16-1</f>
         <v>2017</v>
@@ -2597,7 +4684,7 @@
         <v>9410855084.8199997</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:11">
       <c r="J18">
         <f>J17-1</f>
         <v>2016</v>
@@ -2606,7 +4693,7 @@
         <v>7422261983.1669998</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="10:11">
       <c r="J19">
         <f t="shared" ref="J19:J23" si="1">J18-1</f>
         <v>2015</v>
@@ -2615,7 +4702,7 @@
         <v>5869049646</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="10:11">
       <c r="J20">
         <f>J19-1</f>
         <v>2014</v>
@@ -2624,7 +4711,7 @@
         <v>4474975306.54</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="10:11">
       <c r="J21">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -2633,7 +4720,7 @@
         <v>2977541251.73</v>
       </c>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="10:11">
       <c r="J22">
         <f>J21-1</f>
         <v>2012</v>
@@ -2642,7 +4729,7 @@
         <v>2136873134.55</v>
       </c>
     </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="10:11">
       <c r="J23">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -2651,7 +4738,7 @@
         <v>1481012967.98</v>
       </c>
     </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="10:11">
       <c r="J24">
         <f>J23-1</f>
         <v>2010</v>
@@ -2674,29 +4761,29 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="23" width="17.83203125" customWidth="1"/>
-    <col min="24" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" customWidth="1"/>
-    <col min="27" max="27" width="17.1640625" customWidth="1"/>
-    <col min="28" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="18.1640625" customWidth="1"/>
+    <col min="14" max="23" width="17.875" customWidth="1"/>
+    <col min="24" max="25" width="15.625" customWidth="1"/>
+    <col min="26" max="26" width="17.875" customWidth="1"/>
+    <col min="27" max="27" width="17.125" customWidth="1"/>
+    <col min="28" max="29" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.625" customWidth="1"/>
+    <col min="32" max="32" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="J2" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +4797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +4883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -2885,7 +4972,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -2975,7 +5062,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6">
         <f>A5-1</f>
         <v>2016</v>
@@ -3063,7 +5150,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32">
       <c r="A7">
         <f t="shared" ref="A7:A11" si="5">A6-1</f>
         <v>2015</v>
@@ -3149,7 +5236,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="A8">
         <f>A7-1</f>
         <v>2014</v>
@@ -3233,7 +5320,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -3317,7 +5404,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32">
       <c r="A10">
         <f>A9-1</f>
         <v>2012</v>
@@ -3401,7 +5488,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15.75">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -3481,7 +5568,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32">
       <c r="A12">
         <f>A11-1</f>
         <v>2010</v>
@@ -3563,7 +5650,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +5767,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3712,7 +5799,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3743,7 +5830,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="170.1" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
@@ -3778,7 +5865,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3811,7 +5898,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3862,13 +5949,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +5969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -3897,7 +5984,7 @@
         <v>0.22084933132346027</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -3913,7 +6000,7 @@
         <v>0.24993790583979392</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="1">A5-1</f>
         <v>2016</v>
@@ -3929,7 +6016,7 @@
         <v>0.24147965875180533</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2015</v>
@@ -3945,7 +6032,7 @@
         <v>0.23453741926343227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -3961,7 +6048,7 @@
         <v>0.24385179611336147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -3977,7 +6064,7 @@
         <v>0.35755213526579355</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -3993,7 +6080,7 @@
         <v>0.38042083816289102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -4009,7 +6096,7 @@
         <v>0.28024960500969937</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -4025,7 +6112,7 @@
         <v>0.26033340853605191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>2009</v>
@@ -4038,52 +6125,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:9">
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:9">
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:9">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:9">
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:9">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:9">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:9">
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:9">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:9">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:9">
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -4096,16 +6183,927 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="19">
+        <v>49837132481.610001</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2569445189.9200001</v>
+      </c>
+      <c r="E4" s="19">
+        <v>16619441281.18</v>
+      </c>
+      <c r="F4" s="19">
+        <v>109579422.43000001</v>
+      </c>
+      <c r="G4" s="5">
+        <f>D4+E4</f>
+        <v>19188886471.099998</v>
+      </c>
+      <c r="H4" s="2">
+        <f>C4/((G4+G5)/2)</f>
+        <v>2.6557808345944953</v>
+      </c>
+      <c r="I4" s="1">
+        <f>360/H4</f>
+        <v>135.55335414376071</v>
+      </c>
+      <c r="J4" s="5">
+        <f>F4+L4+N4+O4+P4+Q4+T4+U4+W4+X4+Y4+Z4+R4+S4+V4+AA4</f>
+        <v>1136233797.1900001</v>
+      </c>
+      <c r="K4" s="5">
+        <f>J4-G4</f>
+        <v>-18052652673.91</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1451738988.05</v>
+      </c>
+      <c r="M4" s="2">
+        <f>L4/F4</f>
+        <v>13.248281071908181</v>
+      </c>
+      <c r="N4" s="5">
+        <v>230568528.09999999</v>
+      </c>
+      <c r="O4" s="5">
+        <v>75728611.670000002</v>
+      </c>
+      <c r="P4" s="5">
+        <v>9105604.8300000001</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>-11158802.279999999</v>
+      </c>
+      <c r="R4" s="5">
+        <v>-629658.09</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>607803022.25999999</v>
+      </c>
+      <c r="U4" s="7">
+        <v>-43194721.909999996</v>
+      </c>
+      <c r="V4" s="7">
+        <v>15028120.73</v>
+      </c>
+      <c r="W4" s="7">
+        <v>-221700582.75999999</v>
+      </c>
+      <c r="X4" s="5">
+        <v>-495185127.86000001</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>-2304139391.8200002</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>1712689783.8399999</v>
+      </c>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5">
+        <f>B4-1</f>
+        <v>2017</v>
+      </c>
+      <c r="C5" s="19">
+        <v>41905476572.07</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3636961616.0300002</v>
+      </c>
+      <c r="E5" s="19">
+        <v>14705210072.809999</v>
+      </c>
+      <c r="F5" s="19">
+        <v>74093785.310000002</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G13" si="0">D5+E5</f>
+        <v>18342171688.84</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H13" si="1">C5/((G5+G6)/2)</f>
+        <v>2.5844932699394954</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I13" si="2">360/H5</f>
+        <v>139.29229539391596</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J13" si="3">F5+L5+N5+O5+P5+Q5+T5+U5+W5+X5+Y5+Z5+R5+S5+V5+AA5</f>
+        <v>1260015827.8799999</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:K13" si="4">J5-G5</f>
+        <v>-17082155860.960001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>29956438.440000001</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M13" si="5">L5/F5</f>
+        <v>0.40430433287576895</v>
+      </c>
+      <c r="N5" s="5">
+        <v>197938163.75</v>
+      </c>
+      <c r="O5" s="5">
+        <v>59049996.5</v>
+      </c>
+      <c r="P5" s="5">
+        <v>11177737.220000001</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>238205.34</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
+        <v>-850000</v>
+      </c>
+      <c r="T5" s="5">
+        <v>484728351.18000001</v>
+      </c>
+      <c r="U5" s="5">
+        <v>-51846083.219999999</v>
+      </c>
+      <c r="V5" s="5">
+        <v>4772174.0599999996</v>
+      </c>
+      <c r="W5" s="5">
+        <v>-17777905.27</v>
+      </c>
+      <c r="X5" s="5">
+        <v>8657711.1099999994</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>284052413.99000001</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>174990223.30000001</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>834616.17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6">
+        <f>B5-1</f>
+        <v>2016</v>
+      </c>
+      <c r="C6" s="20">
+        <v>31924020872.439999</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2843404415.52</v>
+      </c>
+      <c r="E6" s="19">
+        <v>11242812902.860001</v>
+      </c>
+      <c r="F6" s="19">
+        <v>95727161.140000001</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>14086217318.380001</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5280047545337658</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>142.40479546344602</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>-1916899182.8099997</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>-16003116501.190001</v>
+      </c>
+      <c r="L6" s="5">
+        <v>164488091.91</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7183011587425834</v>
+      </c>
+      <c r="N6" s="5">
+        <v>181260911.65000001</v>
+      </c>
+      <c r="O6" s="5">
+        <v>56205820.43</v>
+      </c>
+      <c r="P6" s="5">
+        <v>646321.86</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>627516.66</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>239765940.99000001</v>
+      </c>
+      <c r="U6" s="5">
+        <v>-25282857.18</v>
+      </c>
+      <c r="V6" s="5">
+        <v>-600825.84</v>
+      </c>
+      <c r="W6" s="5">
+        <v>-13337307.199999999</v>
+      </c>
+      <c r="X6" s="5">
+        <v>-148611570.27000001</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>-2550540994.3600001</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>53077878.520000003</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>29674728.879999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="6">B6-1</f>
+        <v>2015</v>
+      </c>
+      <c r="C7" s="20">
+        <v>25271390273.419998</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3044148064.8099999</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8125932742.9799995</v>
+      </c>
+      <c r="F7" s="19">
+        <v>76135323.180000007</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>11170080807.789999</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9169319670508425</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>123.41734537058031</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>-474868705.03000003</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>-11644949512.82</v>
+      </c>
+      <c r="L7" s="5">
+        <v>70043433.900000006</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9199860324281085</v>
+      </c>
+      <c r="N7" s="5">
+        <v>192350081.12</v>
+      </c>
+      <c r="O7" s="5">
+        <v>36626572.689999998</v>
+      </c>
+      <c r="P7" s="5">
+        <v>81615.12</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>98784.22</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
+        <v>328135912.69999999</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1835475.81</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5">
+        <v>-6806677.5999999996</v>
+      </c>
+      <c r="X7" s="5">
+        <v>-17185568.890000001</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>-1394007182.95</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>223569404.34999999</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>14254121.32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8">
+        <f>B7-1</f>
+        <v>2014</v>
+      </c>
+      <c r="C8" s="5">
+        <v>17233114021.700001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1875769464.99</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4281526957.0500002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>255289608.69999999</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>6157296422.04</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5096419164575927</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>102.57456702687233</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>-315241319.00999999</v>
+      </c>
+      <c r="K8" s="5">
+        <f>J8-G8</f>
+        <v>-6472537741.0500002</v>
+      </c>
+      <c r="L8" s="5">
+        <v>78913357.269999996</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.30911308012827865</v>
+      </c>
+      <c r="N8" s="5">
+        <v>162964970.91999999</v>
+      </c>
+      <c r="O8" s="5">
+        <v>11364414.529999999</v>
+      </c>
+      <c r="P8" s="5">
+        <v>596315.56000000006</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2699692.81</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
+        <v>261776452.09999999</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
+        <v>-10538299.060000001</v>
+      </c>
+      <c r="X8" s="5">
+        <v>-34160295.140000001</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>-1116160298.97</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>53092587.509999998</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>18920174.760000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9">
+        <f t="shared" si="6"/>
+        <v>2013</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10745907038.84</v>
+      </c>
+      <c r="D9" s="5">
+        <v>784502488.21000004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2878641141.4200001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>229767929.84999999</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>3663143629.6300001</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8529009566281185</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>93.436089858654299</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>-204295235.27999997</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="4"/>
+        <v>-3867438864.9099998</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8659917.5299999993</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7689844425431676E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>60768544.579999998</v>
+      </c>
+      <c r="O9" s="5">
+        <v>7524731.7300000004</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
+        <v>33325.85</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>143852727.03</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5">
+        <v>-3154045.81</v>
+      </c>
+      <c r="X9" s="5">
+        <v>-206286137.05000001</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>-288663679.68000001</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>-186871463.80000001</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>30072914.489999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10">
+        <f>B9-1</f>
+        <v>2012</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7213789489.1800003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>318218110.31999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1596724569.46</v>
+      </c>
+      <c r="F10" s="5">
+        <v>129037030.54000001</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>1914942679.78</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5496531549010504</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>79.126910940935133</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>-23688652.799999982</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="4"/>
+        <v>-1938631332.5799999</v>
+      </c>
+      <c r="L10" s="5">
+        <v>10385228.449999999</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>8.0482543705007972E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>33542649.300000001</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6826474.54</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5">
+        <v>1065346.58</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5">
+        <v>58593037.789999999</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5">
+        <v>-207800.46</v>
+      </c>
+      <c r="W10" s="5">
+        <v>-1998538.88</v>
+      </c>
+      <c r="X10" s="5">
+        <v>-95900005.650000006</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>-236359552.91</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>54937035.93</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>16390441.970000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="15.75">
+      <c r="B11">
+        <f t="shared" si="6"/>
+        <v>2011</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5231639749.7700005</v>
+      </c>
+      <c r="D11" s="5">
+        <v>307926194.52999997</v>
+      </c>
+      <c r="E11" s="5">
+        <v>948269339.34000003</v>
+      </c>
+      <c r="F11" s="5">
+        <v>60139588.299999997</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>1256195533.8699999</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5141658696507756</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>65.286392993977813</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="3"/>
+        <v>90378386.689999968</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
+        <v>-1165817147.1799998</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4212918.57</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="5"/>
+        <v>7.0052334728071305E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>15220897.67</v>
+      </c>
+      <c r="O11" s="5">
+        <v>4153937.85</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="11">
+        <v>28069059.75</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5">
+        <v>105433.97</v>
+      </c>
+      <c r="W11" s="5">
+        <v>-1115462.19</v>
+      </c>
+      <c r="X11" s="5">
+        <v>-102470426.26000001</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>-250416750.28</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>332479189.31</v>
+      </c>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12">
+        <f>B11-1</f>
+        <v>2010</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3605477285.21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>109035496.31999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>532296129.29000002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>36008032</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>641331625.61000001</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3573904201763508E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>3847.2264577501232</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>75011090.079999983</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="4"/>
+        <v>-566320535.52999997</v>
+      </c>
+      <c r="L12" s="5">
+        <v>715772.4</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9878131634630852E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>13779522.529999999</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1918598.32</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
+        <v>10976370.67</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5">
+        <v>83600.850000000006</v>
+      </c>
+      <c r="W12" s="5">
+        <v>-315387.42</v>
+      </c>
+      <c r="X12" s="5">
+        <v>-2251888.34</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>-36766545.869999997</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>50863014.939999998</v>
+      </c>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <f>SUM(C4:C12)</f>
+        <v>192967947784.23996</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUM(D4:D12)</f>
+        <v>15489411040.65</v>
+      </c>
+      <c r="E13" s="5">
+        <f>SUM(E4:E12)</f>
+        <v>60930855136.389999</v>
+      </c>
+      <c r="F13" s="5">
+        <f>SUM(F4:F12)</f>
+        <v>1065777881.4499999</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>76420266177.039993</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0501773269723582</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>71.284625606567431</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>-373353993.08999908</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="4"/>
+        <v>-76793620170.12999</v>
+      </c>
+      <c r="L13" s="5">
+        <f>SUM(L4:L12)</f>
+        <v>1819114146.5200002</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7068417145654025</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" ref="N13:AA13" si="7">SUM(N4:N12)</f>
+        <v>1088394269.6199999</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="7"/>
+        <v>259399158.25999999</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="7"/>
+        <v>21607594.59</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="7"/>
+        <v>-6395930.8199999984</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="7"/>
+        <v>-629658.09</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="7"/>
+        <v>-850000</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="7"/>
+        <v>2163700874.4700003</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="7"/>
+        <v>-118488186.5</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="7"/>
+        <v>19180703.309999999</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="7"/>
+        <v>-276744206.19</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="7"/>
+        <v>-1093393308.3499999</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="7"/>
+        <v>-7893001982.8500004</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="7"/>
+        <v>2468827653.9000001</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" si="7"/>
+        <v>110146997.59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4117,16 +7115,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4164,7 +7162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4204,7 +7202,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -4245,7 +7243,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -4259,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -4273,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -4287,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -4301,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -4315,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -4341,7 +7339,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -4361,7 +7359,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="2"/>
       <c r="L13" s="3"/>
     </row>
